--- a/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
+++ b/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45127</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45127</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>45127</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>45131</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45133</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
+++ b/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45127</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45127</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>45127</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>45131</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45133</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
+++ b/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45127</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45127</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>45127</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>45131</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45133</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
+++ b/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
@@ -625,31 +625,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx"; "A 30779-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/kartor/A 30779-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/kartor/A 30779-2023.png; "A 30779-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/knärot/A 30779-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/knärot/A 30779-2023.png; "A 30779-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomål/A 30779-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomål/A 30779-2023.docx; "A 30779-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx; "A 30779-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx; "A 30779-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx; "A 30779-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
+++ b/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
@@ -629,27 +629,27 @@
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/kartor/A 30779-2023.png; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/kartor/A 30779-2023.png"; "A 30779-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/knärot/A 30779-2023.png; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/knärot/A 30779-2023.png"; "A 30779-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomål/A 30779-2023.docx; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomål/A 30779-2023.docx"; "A 30779-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx"; "A 30779-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx"; "A 30779-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx"; "A 30779-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
+++ b/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
@@ -625,31 +625,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx"; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/kartor/A 30779-2023.png"; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/kartor/A 30779-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/knärot/A 30779-2023.png"; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/knärot/A 30779-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomål/A 30779-2023.docx"; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomål/A 30779-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx"; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx"; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx"; "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>

--- a/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
+++ b/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
@@ -625,31 +625,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/kartor/A 30779-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/kartor/A 30779-2023.png")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/knärot/A 30779-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/knärot/A 30779-2023.png")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomål/A 30779-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomål/A 30779-2023.docx")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx")</f>
         <v/>
       </c>
     </row>

--- a/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
+++ b/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
@@ -648,9 +648,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx")</f>
-        <v/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx"; "A 30779-2023")</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">

--- a/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
+++ b/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,33 +625,32 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx, "A 30779-2023"")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/kartor/A 30779-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/kartor/A 30779-2023.png", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/knärot/A 30779-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/knärot/A 30779-2023.png", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomål/A 30779-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomål/A 30779-2023.docx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx", "A 30779-2023")</f>
         <v/>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx"; "A 30779-2023")</t>
-        </is>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx", "A 30779-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -664,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,7 +720,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -783,7 +782,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -840,7 +839,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -902,7 +901,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -959,7 +958,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1016,7 +1015,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1073,7 +1072,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1130,7 +1129,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1187,7 +1186,7 @@
         <v>45127</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1244,7 +1243,7 @@
         <v>45127</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1301,7 +1300,7 @@
         <v>45127</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1358,7 +1357,7 @@
         <v>45131</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1415,7 +1414,7 @@
         <v>45133</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1477,7 +1476,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1539,7 +1538,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
+++ b/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx, "A 30779-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="T2">

--- a/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
+++ b/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45127</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45127</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>45127</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>45131</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45133</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
+++ b/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45127</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45127</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>45127</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>45131</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45133</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
+++ b/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45127</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45127</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>45127</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>45131</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45133</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
+++ b/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,31 +625,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/artfynd/A 30779-2023.xlsx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/artfynd/A 30779-2023.xlsx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/kartor/A 30779-2023.png", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/kartor/A 30779-2023.png", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/knärot/A 30779-2023.png", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/knärot/A 30779-2023.png", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomål/A 30779-2023.docx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/klagomål/A 30779-2023.docx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/klagomålsmail/A 30779-2023.docx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/klagomålsmail/A 30779-2023.docx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsyn/A 30779-2023.docx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/tillsyn/A 30779-2023.docx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_VASTERVIK/tillsynsmail/A 30779-2023.docx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/tillsynsmail/A 30779-2023.docx", "A 30779-2023")</f>
         <v/>
       </c>
     </row>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45127</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45127</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>45127</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>45131</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45133</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
+++ b/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,31 +625,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/artfynd/A 30779-2023.xlsx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/artfynd/A 30779-2023 artfynd.xlsx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/kartor/A 30779-2023.png", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/kartor/A 30779-2023 karta.png", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/knärot/A 30779-2023.png", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/knärot/A 30779-2023 karta knärot.png", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/klagomål/A 30779-2023.docx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/klagomål/A 30779-2023 fsc-klagomål.docx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/klagomålsmail/A 30779-2023.docx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/klagomålsmail/A 30779-2023 fsc-klagomål mail.docx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/tillsyn/A 30779-2023.docx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/tillsyn/A 30779-2023 tillsynsbegäran.docx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/tillsynsmail/A 30779-2023.docx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/ti,llsynsmail/A 30779-2023 tillsynsbegäran mail.docx", "A 30779-2023")</f>
         <v/>
       </c>
     </row>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45127</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45127</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>45127</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>45131</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45133</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
+++ b/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
@@ -637,11 +637,11 @@
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/klagomål/A 30779-2023 fsc-klagomål.docx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/klagomål/A 30779-2023 FSC-klagomål.docx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/klagomålsmail/A 30779-2023 fsc-klagomål mail.docx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/klagomålsmail/A 30779-2023 FSC-klagomål mail.docx", "A 30779-2023")</f>
         <v/>
       </c>
       <c r="X2">
@@ -649,7 +649,7 @@
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/ti,llsynsmail/A 30779-2023 tillsynsbegäran mail.docx", "A 30779-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0883/tillsynsmail/A 30779-2023 tillsynsbegäran mail.docx", "A 30779-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
+++ b/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45127</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45127</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>45127</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>45131</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45133</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
+++ b/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45127</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45127</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>45127</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>45131</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45133</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
+++ b/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45127</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45127</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>45127</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>45131</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45133</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
+++ b/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45127</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45127</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>45127</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>45131</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45133</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
+++ b/Logging_KALMAR_LAN/Logging_VASTERVIK/Översikt VÄSTERVIK.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45127</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45127</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>45127</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>45131</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45133</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
